--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="478"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" tabRatio="478"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Time spent</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>6:00</t>
+  </si>
+  <si>
+    <t>15-12-2018</t>
+  </si>
+  <si>
+    <t>Twitter Data Analytics &amp; Content preparation for AI &amp; Machine Learning</t>
+  </si>
+  <si>
+    <t>Pushing the Twitter data in Database using MSSQL Server.</t>
   </si>
 </sst>
 </file>
@@ -592,7 +601,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -686,14 +695,26 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Time spent</t>
   </si>
@@ -74,6 +74,27 @@
   </si>
   <si>
     <t>Pushing the Twitter data in Database using MSSQL Server.</t>
+  </si>
+  <si>
+    <t>17-12-2018</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>1)Content Preparation Done.                                                2) Waiting for whatsapp Numbers &amp; Whatsapp Work will Starts from Tommrrow</t>
+  </si>
+  <si>
+    <t>Pushing the Twitter data in Database using MSSQL Server &amp; Content Preparation &amp; Coordinating with Hyderabad Team.</t>
+  </si>
+  <si>
+    <t>Twitter Data Analytics &amp; Content preparation for AI &amp; ML, Data Science &amp; ML , Python &amp; Working On Telagana Whatsapp Project</t>
+  </si>
+  <si>
+    <t>5:00</t>
   </si>
 </sst>
 </file>
@@ -601,7 +622,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,7 +710,9 @@
       <c r="I4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -717,19 +740,33 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="4"/>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Time spent</t>
   </si>
@@ -95,6 +95,18 @@
   </si>
   <si>
     <t>5:00</t>
+  </si>
+  <si>
+    <t>18-12-2018</t>
+  </si>
+  <si>
+    <t>Creating Data tables</t>
+  </si>
+  <si>
+    <t>4:30</t>
+  </si>
+  <si>
+    <t>8:15</t>
   </si>
 </sst>
 </file>
@@ -621,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -772,14 +784,26 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Time spent</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>8:15</t>
+  </si>
+  <si>
+    <t>19-12-2018</t>
+  </si>
+  <si>
+    <t>8:00</t>
+  </si>
+  <si>
+    <t>Creating Database table done</t>
   </si>
 </sst>
 </file>
@@ -633,8 +642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -810,15 +819,29 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="4"/>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Time spent</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>Creating Database table done</t>
+  </si>
+  <si>
+    <t>20-12-2018</t>
+  </si>
+  <si>
+    <t>21-12-2018</t>
+  </si>
+  <si>
+    <t>Voice Recognization System</t>
+  </si>
+  <si>
+    <t>Working On Speech to Text With Speech Recognization Tool</t>
+  </si>
+  <si>
+    <t>8:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Working On Speech to Text With Speech Recognization Tool &amp; Collecting Speech of Narendra Modi </t>
+  </si>
+  <si>
+    <t>Converting Speech to Text is done &amp; Collected Various Speech of Narendra Modi.</t>
   </si>
 </sst>
 </file>
@@ -214,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +252,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,7 +673,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -847,27 +877,55 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+    <row r="10" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
+      <c r="H10" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Time spent</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Converting Speech to Text is done &amp; Collected Various Speech of Narendra Modi.</t>
+  </si>
+  <si>
+    <t>22-12-2018</t>
+  </si>
+  <si>
+    <t>Working on Audio files to convert text in Hindi Language using  Speech Recognization Tool</t>
   </si>
 </sst>
 </file>
@@ -235,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,9 +256,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -262,6 +265,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -689,21 +696,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="3" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -906,7 +913,7 @@
       <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -917,26 +924,40 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>0.29166666666666669</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+    <row r="11" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="H11" s="10">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0.1875</v>
+      </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Time spent</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Working on Audio files to convert text in Hindi Language using  Speech Recognization Tool</t>
+  </si>
+  <si>
+    <t>26-12-2018</t>
+  </si>
+  <si>
+    <t>Working on DeNoise System</t>
   </si>
 </sst>
 </file>
@@ -265,10 +271,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -680,7 +686,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -696,21 +702,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -952,24 +958,38 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>0.35416666666666669</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <v>0.1875</v>
       </c>
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="H12" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.125</v>
+      </c>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
   <si>
     <t>Time spent</t>
   </si>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Working on DeNoise System</t>
+  </si>
+  <si>
+    <t>27-12-2018</t>
+  </si>
+  <si>
+    <t>28-12-2018</t>
+  </si>
+  <si>
+    <t>Voice Recognization System &amp; OCR/ICR</t>
+  </si>
+  <si>
+    <t>Working with Neural Networks on OCR/ICR &amp; Finding API Keys for voice recognize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voice Recognization - Finding API Keys. OCR/ICR - Fine tuning.                     WhatsApp -WhatsApp Activation Process is Started for 100 sims </t>
+  </si>
+  <si>
+    <t>13 Sims WhatsApp has been Activated &amp; Content Preparation is Completed</t>
+  </si>
+  <si>
+    <t>Voice Recognization System &amp; OCR/ICR &amp; WhatsApp Project &amp; Preparing Content for Elexplora on AI Project</t>
   </si>
 </sst>
 </file>
@@ -247,7 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +295,9 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,7 +710,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -992,32 +1016,64 @@
       </c>
       <c r="J12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+    <row r="13" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.1875</v>
+      </c>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
+      <c r="H14" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1029,7 +1085,9 @@
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -1041,7 +1099,9 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1053,7 +1113,9 @@
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1065,7 +1127,9 @@
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1077,7 +1141,9 @@
       <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>Time spent</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>Voice Recognization System &amp; OCR/ICR &amp; WhatsApp Project &amp; Preparing Content for Elexplora on AI Project</t>
+  </si>
+  <si>
+    <t>31-12-2018</t>
+  </si>
+  <si>
+    <t>Voice Recognization System &amp; WhatsApp Project</t>
+  </si>
+  <si>
+    <t>96 Sims WhatsApp has been Activated &amp; 4 are not getting OTP to activate WhatsApp</t>
+  </si>
+  <si>
+    <t>Working on Lyrebird API Keys &amp; IBM Watson API Keys for TTS</t>
   </si>
 </sst>
 </file>
@@ -293,11 +305,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -709,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -726,21 +738,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
     </row>
     <row r="3" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -1029,7 +1041,7 @@
       <c r="D13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="5"/>
@@ -1070,19 +1082,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
+      <c r="H15" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5">

--- a/Time sheet .xlsx
+++ b/Time sheet .xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>Time spent</t>
   </si>
@@ -182,6 +182,27 @@
   </si>
   <si>
     <t>Working on Lyrebird API Keys &amp; IBM Watson API Keys for TTS</t>
+  </si>
+  <si>
+    <t>Working on TTS &amp; WhataApp system</t>
+  </si>
+  <si>
+    <t>Voice Recognization system &amp; WhatsApp Project &amp; Twitter Data Anlaytics</t>
+  </si>
+  <si>
+    <t>Twitter Data Anlaytics &amp; Whats App Projoect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collecting the information of Thiruvuru for Health &amp; Education system for Making Analytics </t>
+  </si>
+  <si>
+    <t>Making Maps for Thiruvuru Hash tags &amp; WhatsApp Project</t>
+  </si>
+  <si>
+    <t>Thiruvuru Data Analytics Work has completed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiuvuru Education &amp; Health Information has been Completed </t>
   </si>
 </sst>
 </file>
@@ -280,7 +301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -311,6 +332,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +744,7 @@
   <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,47 +1132,87 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="12">
+        <v>43497</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="12">
+        <v>43525</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H17" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="B18" s="12">
+        <v>43556</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="H18" s="9">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
